--- a/codigo_database.xlsx
+++ b/codigo_database.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C130"/>
+  <dimension ref="A1:C131"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="A59" sqref="A59"/>
@@ -2622,6 +2622,23 @@
         </is>
       </c>
     </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>VDS2073</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>13/11/2025 11:56:43</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>6323</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/codigo_database.xlsx
+++ b/codigo_database.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C131"/>
+  <dimension ref="A1:C134"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="A59" sqref="A59"/>
@@ -2639,6 +2639,57 @@
         </is>
       </c>
     </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>VDS2074</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>14/11/2025 07:42:49</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>VDS2075</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>14/11/2025 08:11:01</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Blues</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>VDS2076</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>14/11/2025 08:11:11</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Blues</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/codigo_database.xlsx
+++ b/codigo_database.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C134"/>
+  <dimension ref="A1:C139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="A59" sqref="A59"/>
@@ -2690,6 +2690,91 @@
         </is>
       </c>
     </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>VDS2077</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>17/11/2025 11:29:17</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>2151</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>VDS2078</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>17/11/2025 11:29:45</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>2151</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>DES2073</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>17/11/2025 11:30:48</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>2151</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>DES2074</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>17/11/2025 11:31:44</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>2151</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>DES2075</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>17/11/2025 11:32:28</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>2151</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
